--- a/data.xlsx.xlsx
+++ b/data.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pggoe\OneDrive\ドキュメント\Python_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FDB552-D88C-4A30-B5BF-6FC7FA4062D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7C3827-7905-4461-BA5E-D056542F3F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>S.No.</t>
   </si>
@@ -61,20 +61,33 @@
     <t>2024,2025</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>pari.24bai10055@vitbhopal.ac.in</t>
+    <t>Shivansh</t>
+  </si>
+  <si>
+    <t>Happy Birthday motu</t>
+  </si>
+  <si>
+    <t>ishivanshgoel@gmail.com</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Happy Birthday Mamma</t>
+  </si>
+  <si>
+    <t>rggoel1334@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +99,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,17 +141,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>45773</v>
+        <v>45836</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -552,19 +577,43 @@
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>45776</v>
+        <v>45714</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45923</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2024</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{2A138B5A-3B5F-4988-86FC-68AA175C8BD2}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{DE2538C8-3562-450B-947F-C98AB4EFA3DA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError sqref="E5:E6" numberStoredAsText="1"/>
